--- a/natmiOut/YoungD7/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.06455458112649</v>
+        <v>3.343101333333333</v>
       </c>
       <c r="H2">
-        <v>3.06455458112649</v>
+        <v>10.029304</v>
       </c>
       <c r="I2">
-        <v>0.221968301455659</v>
+        <v>0.2255238790820294</v>
       </c>
       <c r="J2">
-        <v>0.221968301455659</v>
+        <v>0.2255238790820294</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.91144927474486</v>
+        <v>0.5751623333333333</v>
       </c>
       <c r="N2">
-        <v>4.91144927474486</v>
+        <v>1.725487</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.08167574423707133</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.08167574423707133</v>
       </c>
       <c r="Q2">
-        <v>15.05140437488974</v>
+        <v>1.922825963449778</v>
       </c>
       <c r="R2">
-        <v>15.05140437488974</v>
+        <v>17.305433671048</v>
       </c>
       <c r="S2">
-        <v>0.221968301455659</v>
+        <v>0.01841983066725603</v>
       </c>
       <c r="T2">
-        <v>0.221968301455659</v>
+        <v>0.01841983066725603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.7295192600412</v>
+        <v>3.343101333333333</v>
       </c>
       <c r="H3">
-        <v>2.7295192600412</v>
+        <v>10.029304</v>
       </c>
       <c r="I3">
-        <v>0.1977014074649451</v>
+        <v>0.2255238790820294</v>
       </c>
       <c r="J3">
-        <v>0.1977014074649451</v>
+        <v>0.2255238790820294</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.91144927474486</v>
+        <v>6.466858999999999</v>
       </c>
       <c r="N3">
-        <v>4.91144927474486</v>
+        <v>19.400577</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9183242557629286</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9183242557629286</v>
       </c>
       <c r="Q3">
-        <v>13.40589539013148</v>
+        <v>21.61936494537866</v>
       </c>
       <c r="R3">
-        <v>13.40589539013148</v>
+        <v>194.574284508408</v>
       </c>
       <c r="S3">
-        <v>0.1977014074649451</v>
+        <v>0.2071040484147733</v>
       </c>
       <c r="T3">
-        <v>0.1977014074649451</v>
+        <v>0.2071040484147734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.10249789697406</v>
+        <v>3.027316</v>
       </c>
       <c r="H4">
-        <v>5.10249789697406</v>
+        <v>9.081948000000001</v>
       </c>
       <c r="I4">
-        <v>0.3695782735760829</v>
+        <v>0.2042211645575085</v>
       </c>
       <c r="J4">
-        <v>0.3695782735760829</v>
+        <v>0.2042211645575085</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.91144927474486</v>
+        <v>0.5751623333333333</v>
       </c>
       <c r="N4">
-        <v>4.91144927474486</v>
+        <v>1.725487</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.08167574423707133</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.08167574423707133</v>
       </c>
       <c r="Q4">
-        <v>25.06065959548042</v>
+        <v>1.741198134297333</v>
       </c>
       <c r="R4">
-        <v>25.06065959548042</v>
+        <v>15.670783208676</v>
       </c>
       <c r="S4">
-        <v>0.3695782735760829</v>
+        <v>0.01667991560419593</v>
       </c>
       <c r="T4">
-        <v>0.3695782735760829</v>
+        <v>0.01667991560419593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.90969952234575</v>
+        <v>3.027316</v>
       </c>
       <c r="H5">
-        <v>2.90969952234575</v>
+        <v>9.081948000000001</v>
       </c>
       <c r="I5">
-        <v>0.2107520175033131</v>
+        <v>0.2042211645575085</v>
       </c>
       <c r="J5">
-        <v>0.2107520175033131</v>
+        <v>0.2042211645575085</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.91144927474486</v>
+        <v>6.466858999999999</v>
       </c>
       <c r="N5">
-        <v>4.91144927474486</v>
+        <v>19.400577</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9183242557629286</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9183242557629286</v>
       </c>
       <c r="Q5">
-        <v>14.2908416087505</v>
+        <v>19.577225720444</v>
       </c>
       <c r="R5">
-        <v>14.2908416087505</v>
+        <v>176.195031483996</v>
       </c>
       <c r="S5">
-        <v>0.2107520175033131</v>
+        <v>0.1875412489533126</v>
       </c>
       <c r="T5">
-        <v>0.2107520175033131</v>
+        <v>0.1875412489533126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.111358333333333</v>
+      </c>
+      <c r="H6">
+        <v>15.334075</v>
+      </c>
+      <c r="I6">
+        <v>0.3448095776271982</v>
+      </c>
+      <c r="J6">
+        <v>0.3448095776271983</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.5751623333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.725487</v>
+      </c>
+      <c r="O6">
+        <v>0.08167574423707133</v>
+      </c>
+      <c r="P6">
+        <v>0.08167574423707133</v>
+      </c>
+      <c r="Q6">
+        <v>2.939860785502778</v>
+      </c>
+      <c r="R6">
+        <v>26.458747069525</v>
+      </c>
+      <c r="S6">
+        <v>0.02816257887277163</v>
+      </c>
+      <c r="T6">
+        <v>0.02816257887277164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.111358333333333</v>
+      </c>
+      <c r="H7">
+        <v>15.334075</v>
+      </c>
+      <c r="I7">
+        <v>0.3448095776271982</v>
+      </c>
+      <c r="J7">
+        <v>0.3448095776271983</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.466858999999999</v>
+      </c>
+      <c r="N7">
+        <v>19.400577</v>
+      </c>
+      <c r="O7">
+        <v>0.9183242557629286</v>
+      </c>
+      <c r="P7">
+        <v>0.9183242557629286</v>
+      </c>
+      <c r="Q7">
+        <v>33.05443364014167</v>
+      </c>
+      <c r="R7">
+        <v>297.489902761275</v>
+      </c>
+      <c r="S7">
+        <v>0.3166469987544266</v>
+      </c>
+      <c r="T7">
+        <v>0.3166469987544266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.341937666666667</v>
+      </c>
+      <c r="H8">
+        <v>10.025813</v>
+      </c>
+      <c r="I8">
+        <v>0.2254453787332639</v>
+      </c>
+      <c r="J8">
+        <v>0.2254453787332639</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.5751623333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.725487</v>
+      </c>
+      <c r="O8">
+        <v>0.08167574423707133</v>
+      </c>
+      <c r="P8">
+        <v>0.08167574423707133</v>
+      </c>
+      <c r="Q8">
+        <v>1.922156666214556</v>
+      </c>
+      <c r="R8">
+        <v>17.299409995931</v>
+      </c>
+      <c r="S8">
+        <v>0.01841341909284774</v>
+      </c>
+      <c r="T8">
+        <v>0.01841341909284774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.341937666666667</v>
+      </c>
+      <c r="H9">
+        <v>10.025813</v>
+      </c>
+      <c r="I9">
+        <v>0.2254453787332639</v>
+      </c>
+      <c r="J9">
+        <v>0.2254453787332639</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.466858999999999</v>
+      </c>
+      <c r="N9">
+        <v>19.400577</v>
+      </c>
+      <c r="O9">
+        <v>0.9183242557629286</v>
+      </c>
+      <c r="P9">
+        <v>0.9183242557629286</v>
+      </c>
+      <c r="Q9">
+        <v>21.61183967712233</v>
+      </c>
+      <c r="R9">
+        <v>194.506557094101</v>
+      </c>
+      <c r="S9">
+        <v>0.2070319596404161</v>
+      </c>
+      <c r="T9">
+        <v>0.2070319596404162</v>
       </c>
     </row>
   </sheetData>
